--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -5,16 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GSR\JAP\Plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t7959ak\Desktop\Raman\JavaLearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="24000" windowHeight="8985" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="24000" windowHeight="8985" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Concepts to Cover" sheetId="2" r:id="rId1"/>
     <sheet name="Detailed List" sheetId="1" r:id="rId2"/>
+    <sheet name="Arul -Completed" sheetId="3" r:id="rId3"/>
+    <sheet name="Arul - Not Started" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Arul -Completed'!$A$2:$I$4</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="237">
   <si>
     <t>Design Patterns</t>
   </si>
@@ -727,13 +732,22 @@
   </si>
   <si>
     <t>ThymeLeaf</t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>Feb 4 : Feb 10</t>
+  </si>
+  <si>
+    <t>Completed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -749,16 +763,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -766,17 +794,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1220,8 +1265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2152,4 +2197,606 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:I45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:I4"/>
+  <dataConsolidate/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'Detailed List'!$B:$B</xm:f>
+          </x14:formula1>
+          <xm:sqref>B3:B45</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'Detailed List'!$C:$C</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3:C45</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'Detailed List'!$D:$D</xm:f>
+          </x14:formula1>
+          <xm:sqref>D3:D45</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'Detailed List'!$E:$E</xm:f>
+          </x14:formula1>
+          <xm:sqref>E3:E45</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'Detailed List'!$F:$F</xm:f>
+          </x14:formula1>
+          <xm:sqref>F3:F45</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'Detailed List'!$G:$G</xm:f>
+          </x14:formula1>
+          <xm:sqref>G3:G45</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'Detailed List'!$H:$H</xm:f>
+          </x14:formula1>
+          <xm:sqref>H3:H45</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'Detailed List'!$I:$I</xm:f>
+          </x14:formula1>
+          <xm:sqref>I3:I45</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="24000" windowHeight="8985" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="24000" windowHeight="8985" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Concepts to Cover" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="237">
   <si>
     <t>Design Patterns</t>
   </si>
@@ -2203,8 +2203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2266,9 +2266,15 @@
       <c r="A4" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -2791,7 +2797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t7959ak\Desktop\Raman\JavaLearning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GSR\JAP\Code\GIT Extensions\NewRep\JavaLearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="24000" windowHeight="8985" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="24000" windowHeight="8985"/>
   </bookViews>
   <sheets>
     <sheet name="Concepts to Cover" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="238">
   <si>
     <t>Design Patterns</t>
   </si>
@@ -741,6 +741,9 @@
   </si>
   <si>
     <t>Completed</t>
+  </si>
+  <si>
+    <t>http://tutorials.jenkov.com/java-concurrency/concurrency-models.html</t>
   </si>
 </sst>
 </file>
@@ -1124,8 +1127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1142,6 +1145,9 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2791,7 +2797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t7959ak\Desktop\Raman\JavaLearning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GSR\JAP\Code\GIT Extensions\NewRep\JavaLearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="24000" windowHeight="8985" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="24000" windowHeight="8985"/>
   </bookViews>
   <sheets>
     <sheet name="Concepts to Cover" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="238">
   <si>
     <t>Design Patterns</t>
   </si>
@@ -741,6 +741,9 @@
   </si>
   <si>
     <t>Completed</t>
+  </si>
+  <si>
+    <t>http://tutorials.jenkov.com/java-concurrency/concurrency-models.html</t>
   </si>
 </sst>
 </file>
@@ -1124,8 +1127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1142,6 +1145,9 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2203,8 +2209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2266,15 +2272,9 @@
       <c r="A4" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>75</v>
-      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -2797,7 +2797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GSR\JAP\Code\GIT Extensions\NewRep\JavaLearning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t7959ak\Desktop\Raman\JavaLearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="24000" windowHeight="8985"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="24000" windowHeight="8985" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Concepts to Cover" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="238">
   <si>
     <t>Design Patterns</t>
   </si>
@@ -1127,7 +1127,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -2209,8 +2209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2272,9 +2272,15 @@
       <c r="A4" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
